--- a/prompt_list.xlsx
+++ b/prompt_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA19532\My docs\1\1) R&amp;D excellence\Biometrics\Projects\4) Pfizer- Breakthrough Change Accelerator (BCA)\2023\Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5B871A-71A6-48F1-A188-C66284CE94C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AAF378-DCF6-4F83-8125-AC1165562F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0AAF133E-1AD5-49EC-BF4A-6EBF1AF52A54}"/>
   </bookViews>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>Major Category</t>
-  </si>
-  <si>
-    <t>Prompt Structure/Template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Adverse Events</t>
   </si>
@@ -172,6 +166,54 @@
 Provide 1-2 examples based on different CSRs for this particular sub-section
 input: '{context of new CSR - markdown text as input}
 output: keep blank (this is the final output that LLM model will generate)</t>
+  </si>
+  <si>
+    <t>5.2.3.1 - Brief Summary of Adverse Events</t>
+  </si>
+  <si>
+    <t>5.2.3.2 - Deaths</t>
+  </si>
+  <si>
+    <t>5.2.3.3 - SAE and TEAE</t>
+  </si>
+  <si>
+    <t>5.2.3.4 - Dose modification or discontinuation</t>
+  </si>
+  <si>
+    <t>5.2.3.5 - AE of special interest</t>
+  </si>
+  <si>
+    <t>5.2.3.6 - Other significant Aes</t>
+  </si>
+  <si>
+    <t>5.2.4 Evaluation of each lab parameter</t>
+  </si>
+  <si>
+    <t>Lab values over time</t>
+  </si>
+  <si>
+    <t>Analyses of individual patient changes by treatment group</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>ECG/EKG</t>
+  </si>
+  <si>
+    <t>Physical Examination Findings</t>
+  </si>
+  <si>
+    <t>Other observations related to safety</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>subsectionname</t>
+  </si>
+  <si>
+    <t>section_type</t>
   </si>
 </sst>
 </file>
@@ -523,127 +565,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D29F65-6DCE-4E72-8C38-14823B6761D5}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
